--- a/results/sub-test_task-sentences_log.xlsx
+++ b/results/sub-test_task-sentences_log.xlsx
@@ -13,51 +13,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="47" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="202" uniqueCount="16">
   <si>
     <t>Trial</t>
   </si>
   <si>
+    <t>Block Trial</t>
+  </si>
+  <si>
     <t>Stimulus</t>
   </si>
   <si>
     <t>Gosto de todo o tipo de jogos e passatempos.</t>
   </si>
   <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Completamente Verdadeiro</t>
+  </si>
+  <si>
+    <t>ResponseIndex</t>
+  </si>
+  <si>
+    <t>ReactionTime</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
     <t>Sou mais sensível à crítica do que era antes.</t>
   </si>
   <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Completamente Verdadeiro</t>
+    <t>Ultimamente tenho me sentido muito ansioso(a) e receoso(a).</t>
+  </si>
+  <si>
+    <t>Falso</t>
+  </si>
+  <si>
+    <t>Parcialmente Verdadeiro</t>
+  </si>
+  <si>
+    <t>Choro facilmente.</t>
   </si>
   <si>
     <t>Maioritariamente Verdadeiro</t>
-  </si>
-  <si>
-    <t>ResponseIndex</t>
-  </si>
-  <si>
-    <t>ReactionTime</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Block Trial</t>
-  </si>
-  <si>
-    <t>Ultimamente tenho me sentido muito ansioso(a) e receoso(a).</t>
-  </si>
-  <si>
-    <t>Falso</t>
-  </si>
-  <si>
-    <t>Parcialmente Verdadeiro</t>
   </si>
 </sst>
 </file>
@@ -109,13 +112,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="true"/>
-    <col min="2" max="2" width="10.140625" customWidth="true"/>
-    <col min="3" max="3" width="56.28515625" customWidth="true"/>
-    <col min="4" max="4" width="26" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.28515625" customWidth="true"/>
-    <col min="7" max="7" width="9.85546875" customWidth="true"/>
+    <col min="1" max="1" width="4.5546875" customWidth="true"/>
+    <col min="2" max="2" width="9.44140625" customWidth="true"/>
+    <col min="3" max="3" width="38.21875" customWidth="true"/>
+    <col min="4" max="4" width="23.5546875" customWidth="true"/>
+    <col min="5" max="5" width="13.21875" customWidth="true"/>
+    <col min="6" max="6" width="12.21875" customWidth="true"/>
+    <col min="7" max="7" width="8.88671875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -123,22 +126,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -149,7 +152,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>5</v>
@@ -158,57 +161,45 @@
         <v>1</v>
       </c>
       <c r="F2" s="0">
-        <v>5.460296000004746</v>
+        <v>0.89754470000116271</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
       <c r="E3" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>1.1184788000537083</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>2.9050426000030711</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0">
@@ -218,14 +209,12 @@
         <v>0</v>
       </c>
       <c r="C5" s="0"/>
-      <c r="D5" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1.7732316999463364</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0"/>
     </row>

--- a/results/sub-test_task-sentences_log.xlsx
+++ b/results/sub-test_task-sentences_log.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="202" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="622" uniqueCount="50">
   <si>
     <t>Trial</t>
   </si>
@@ -61,6 +61,108 @@
   </si>
   <si>
     <t>Maioritariamente Verdadeiro</t>
+  </si>
+  <si>
+    <t>Ultimamente tenho-me sentido muito ansioso(a) e receoso(a).</t>
+  </si>
+  <si>
+    <t>Gosto de construir armários de cozinha.</t>
+  </si>
+  <si>
+    <t>Gosto de assentar tijolos ou azulejos.</t>
+  </si>
+  <si>
+    <t>Gostava de desenvolver um medicamento novo.</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>Gosto de estudar maneiras de reduzir a poluição da água.</t>
+  </si>
+  <si>
+    <t>Tenho medo de perder a minha sanidade mental.</t>
+  </si>
+  <si>
+    <t>Sinto-me melancólico(a) e deprimido(a).</t>
+  </si>
+  <si>
+    <t>Não consigo compreender tão bem o que leio como costumava.</t>
+  </si>
+  <si>
+    <t>Gostaria de pôr termo à minha vida.</t>
+  </si>
+  <si>
+    <t>Gosto de escrever livros ou peças de teatro.</t>
+  </si>
+  <si>
+    <t>Gosto de tocar um instrumento musical.</t>
+  </si>
+  <si>
+    <t>Gosto de ensinar a alguém uma rotina de exercícios.</t>
+  </si>
+  <si>
+    <t>Gosto de ajudar pessoas com problemas pessoais ou emocionais.</t>
+  </si>
+  <si>
+    <t>De manhã sinto-me particularmente mal.</t>
+  </si>
+  <si>
+    <t>Já não tenho uma relação próxima com outras pessoas.</t>
+  </si>
+  <si>
+    <t>Sinto que estou prestes a desmoronar.</t>
+  </si>
+  <si>
+    <t>Tenho constantemente medo de dizer ou fazer algo errado.</t>
+  </si>
+  <si>
+    <t>Gosto de comprar e vender ações e obrigações financeiras.</t>
+  </si>
+  <si>
+    <t>Gosto de gerir uma loja.</t>
+  </si>
+  <si>
+    <t>Gosto de desenvolver uma folha de cálculo usando software de computador.</t>
+  </si>
+  <si>
+    <t>Gosto de fazer a revisão de registos ou formulários.</t>
+  </si>
+  <si>
+    <t>Atualmente estou muito menos interessado(a) na minha vida amorosa do que anteriormente.</t>
+  </si>
+  <si>
+    <t>Muitas vezes sinto-me simplesmente miserável.</t>
+  </si>
+  <si>
+    <t>Por mais que tente, não consigo pensar com clareza.</t>
+  </si>
+  <si>
+    <t>Já não tenho qualquer sentimento.</t>
+  </si>
+  <si>
+    <t>Gosto de reparar eletrodomésticos.</t>
+  </si>
+  <si>
+    <t>Gosto de criar peixes.</t>
+  </si>
+  <si>
+    <t>Gosto de realizar experiências químicas.</t>
+  </si>
+  <si>
+    <t>Gosto de estudar o movimento dos planetas.</t>
+  </si>
+  <si>
+    <t>4) Falso</t>
+  </si>
+  <si>
+    <t>2) Maioritariamente Verdadeiro</t>
+  </si>
+  <si>
+    <t>3) Parcialmente Verdadeiro</t>
+  </si>
+  <si>
+    <t>1) Completamente Verdadeiro</t>
   </si>
 </sst>
 </file>
@@ -114,8 +216,8 @@
   <cols>
     <col min="1" max="1" width="4.5546875" customWidth="true"/>
     <col min="2" max="2" width="9.44140625" customWidth="true"/>
-    <col min="3" max="3" width="38.21875" customWidth="true"/>
-    <col min="4" max="4" width="23.5546875" customWidth="true"/>
+    <col min="3" max="3" width="54" customWidth="true"/>
+    <col min="4" max="4" width="8.77734375" customWidth="true"/>
     <col min="5" max="5" width="13.21875" customWidth="true"/>
     <col min="6" max="6" width="12.21875" customWidth="true"/>
     <col min="7" max="7" width="8.88671875" customWidth="true"/>
@@ -154,273 +256,267 @@
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="0">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.89754470000116271</v>
-      </c>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
       <c r="G2" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="0"/>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="0"/>
-      <c r="E4" s="0">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="0"/>
-      <c r="E5" s="0">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="0"/>
-      <c r="E6" s="0">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="0"/>
-      <c r="E7" s="0">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="0"/>
-      <c r="E8" s="0">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="0"/>
-      <c r="E9" s="0">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="0"/>
-      <c r="E10" s="0">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="0"/>
-      <c r="E11" s="0">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="0"/>
-      <c r="E12" s="0">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="0"/>
-      <c r="E13" s="0">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="0">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="0">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="0">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>29</v>
+      </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="0">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
